--- a/Data2/result.xlsx
+++ b/Data2/result.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3629.553012792085</v>
+        <v>3348.611851331264</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3994.97325264455</v>
+        <v>3521.061249783878</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3074.448203186718</v>
+        <v>4033.966273132482</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3453.535547544354</v>
+        <v>3743.586269507345</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2693.091165239615</v>
+        <v>3772.754205429891</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3810.898964595948</v>
+        <v>1447.805620660338</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3427.851880714056</v>
+        <v>3065.230025636468</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3751.928662632618</v>
+        <v>3548.210690274901</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3415.130892675791</v>
+        <v>2882.226062121773</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3521.060838497081</v>
+        <v>3829.841342697765</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2837.694449124541</v>
+        <v>3792.973388153004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3511.57258949694</v>
+        <v>3208.278990447408</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2446.437418086291</v>
+        <v>3953.701666510387</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2222.201192561568</v>
+        <v>3533.250691503498</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3097.212707493152</v>
+        <v>2872.589427338263</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4112.279444892414</v>
+        <v>3557.837022069699</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3989.778837693871</v>
+        <v>3961.49019291221</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3381.089431882055</v>
+        <v>3482.331053407971</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3178.012917377697</v>
+        <v>3417.941570592497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3241.337217663187</v>
+        <v>4858.552440440929</v>
       </c>
     </row>
   </sheetData>
